--- a/salida.xlsx
+++ b/salida.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilibrebog-my.sharepoint.com/personal/edgarl_duartef_unilibre_edu_co/Documents/Doctorado/Códigos Python/HcNDP/Health-Care-Network-Design-Problem/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D2F04E46CFB4ACB3E20795515CEB8683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6CEF836-E052-4EAE-897C-7518AA14B208}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="df_probs" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,12 +330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
